--- a/Datos algoritmo.xlsx
+++ b/Datos algoritmo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -311,7 +311,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2228,11 +2228,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="36843871"/>
-        <c:axId val="8652798"/>
+        <c:axId val="98155094"/>
+        <c:axId val="75509075"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="36843871"/>
+        <c:axId val="98155094"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2268,12 +2268,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8652798"/>
+        <c:crossAx val="75509075"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="8652798"/>
+        <c:axId val="75509075"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.015"/>
@@ -2320,7 +2320,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36843871"/>
+        <c:crossAx val="98155094"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2358,9 +2358,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>456840</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2368,8 +2368,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2124000" y="123840"/>
-        <a:ext cx="9734400" cy="4047840"/>
+        <a:off x="2086200" y="123840"/>
+        <a:ext cx="9609840" cy="4047480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2389,16 +2389,16 @@
   </sheetPr>
   <dimension ref="A1:L300"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R16" activeCellId="0" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5721,28 +5721,29 @@
   </sheetPr>
   <dimension ref="A1:Q300"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R9" activeCellId="0" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5795,7 +5796,7 @@
         <v>0.00069763</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
@@ -5846,18 +5847,18 @@
       </c>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>0.0008</v>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.9991</v>
+        <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
@@ -5881,33 +5882,33 @@
         <v>13</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>29.4592</v>
+        <v>29.4264</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0.020623</v>
+        <v>0.02064</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>0.00069986</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.0007</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
+      <c r="B4" s="1" t="n">
+        <v>0.0008</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1.0009</v>
+        <v>0.9991</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
@@ -5931,19 +5932,19 @@
         <v>13</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>29.4264</v>
+        <v>29.4592</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.020659</v>
+        <v>0.020623</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.00070126</v>
+        <v>0.00069986</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6096,7 +6097,7 @@
         <v>0.00069996</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>8</v>
       </c>
